--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F8-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.162423666666667</v>
+        <v>0.190922</v>
       </c>
       <c r="H2">
-        <v>3.487271</v>
+        <v>0.572766</v>
       </c>
       <c r="I2">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="J2">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N2">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O2">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P2">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q2">
-        <v>24.50599914239011</v>
+        <v>0.6598770899706666</v>
       </c>
       <c r="R2">
-        <v>220.553992281511</v>
+        <v>5.938893809736</v>
       </c>
       <c r="S2">
-        <v>0.03685298349584755</v>
+        <v>0.002259815402312299</v>
       </c>
       <c r="T2">
-        <v>0.03685298349584755</v>
+        <v>0.002259815402312298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.162423666666667</v>
+        <v>0.190922</v>
       </c>
       <c r="H3">
-        <v>3.487271</v>
+        <v>0.572766</v>
       </c>
       <c r="I3">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="J3">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P3">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q3">
-        <v>350.5871506803185</v>
+        <v>57.58210358373734</v>
       </c>
       <c r="R3">
-        <v>3155.284356122866</v>
+        <v>518.238932253636</v>
       </c>
       <c r="S3">
-        <v>0.5272252889101288</v>
+        <v>0.197195699856554</v>
       </c>
       <c r="T3">
-        <v>0.5272252889101288</v>
+        <v>0.1971956998565539</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.162423666666667</v>
+        <v>0.190922</v>
       </c>
       <c r="H4">
-        <v>3.487271</v>
+        <v>0.572766</v>
       </c>
       <c r="I4">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="J4">
-        <v>0.6447270069705344</v>
+        <v>0.2296201981553925</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P4">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q4">
-        <v>53.62870608010879</v>
+        <v>8.808234136859335</v>
       </c>
       <c r="R4">
-        <v>482.6583547209791</v>
+        <v>79.27410723173401</v>
       </c>
       <c r="S4">
-        <v>0.08064873456455809</v>
+        <v>0.03016468289652629</v>
       </c>
       <c r="T4">
-        <v>0.08064873456455809</v>
+        <v>0.03016468289652628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.272796</v>
       </c>
       <c r="I5">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="J5">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N5">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O5">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P5">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q5">
-        <v>8.944282702559555</v>
+        <v>1.466373563735111</v>
       </c>
       <c r="R5">
-        <v>80.498544323036</v>
+        <v>13.197362073616</v>
       </c>
       <c r="S5">
-        <v>0.01345072693850887</v>
+        <v>0.005021743617465919</v>
       </c>
       <c r="T5">
-        <v>0.01345072693850887</v>
+        <v>0.005021743617465918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.272796</v>
       </c>
       <c r="I6">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="J6">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P6">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q6">
         <v>127.9584876074462</v>
@@ -818,10 +818,10 @@
         <v>1151.626388467016</v>
       </c>
       <c r="S6">
-        <v>0.1924284745360072</v>
+        <v>0.4382066987122532</v>
       </c>
       <c r="T6">
-        <v>0.1924284745360072</v>
+        <v>0.4382066987122532</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.272796</v>
       </c>
       <c r="I7">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="J7">
-        <v>0.2353146502133239</v>
+        <v>0.5102601581298313</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P7">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q7">
         <v>19.57358707824489</v>
@@ -880,10 +880,10 @@
         <v>176.162283704204</v>
       </c>
       <c r="S7">
-        <v>0.02943544873880788</v>
+        <v>0.06703171580011219</v>
       </c>
       <c r="T7">
-        <v>0.02943544873880788</v>
+        <v>0.06703171580011218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.648844</v>
       </c>
       <c r="I8">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147762</v>
       </c>
       <c r="J8">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147761</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.08181366666667</v>
+        <v>3.456265333333333</v>
       </c>
       <c r="N8">
-        <v>63.245441</v>
+        <v>10.368796</v>
       </c>
       <c r="O8">
-        <v>0.0571606014598545</v>
+        <v>0.009841535807677501</v>
       </c>
       <c r="P8">
-        <v>0.0571606014598545</v>
+        <v>0.0098415358076775</v>
       </c>
       <c r="Q8">
-        <v>4.559602768911555</v>
+        <v>0.7475256746471111</v>
       </c>
       <c r="R8">
-        <v>41.036424920204</v>
+        <v>6.727731071824</v>
       </c>
       <c r="S8">
-        <v>0.006856891025498078</v>
+        <v>0.002559976787899284</v>
       </c>
       <c r="T8">
-        <v>0.006856891025498078</v>
+        <v>0.002559976787899283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.648844</v>
       </c>
       <c r="I9">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147762</v>
       </c>
       <c r="J9">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147761</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420774</v>
       </c>
       <c r="P9">
-        <v>0.8177496571571792</v>
+        <v>0.8587907398420773</v>
       </c>
       <c r="Q9">
         <v>65.23048228715821</v>
@@ -1004,10 +1004,10 @@
         <v>587.0743405844239</v>
       </c>
       <c r="S9">
-        <v>0.09809589371104327</v>
+        <v>0.2233883412732702</v>
       </c>
       <c r="T9">
-        <v>0.09809589371104327</v>
+        <v>0.2233883412732701</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.648844</v>
       </c>
       <c r="I10">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147762</v>
       </c>
       <c r="J10">
-        <v>0.1199583428161417</v>
+        <v>0.2601196437147761</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="P10">
-        <v>0.1250897413829664</v>
+        <v>0.1313677243502452</v>
       </c>
       <c r="Q10">
         <v>9.978193311572889</v>
@@ -1066,10 +1066,10 @@
         <v>89.80373980415601</v>
       </c>
       <c r="S10">
-        <v>0.01500555807960039</v>
+        <v>0.03417132565360671</v>
       </c>
       <c r="T10">
-        <v>0.01500555807960039</v>
+        <v>0.03417132565360669</v>
       </c>
     </row>
   </sheetData>
